--- a/target_observability/EarlyScienceObservability_custom_constraint.xlsx
+++ b/target_observability/EarlyScienceObservability_custom_constraint.xlsx
@@ -569,27 +569,28 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+W28
+M20
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
 W28
 M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -597,47 +598,47 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -645,10 +646,10 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -658,8 +659,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -669,8 +670,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -800,76 +801,77 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+W28
+M20
+OmegaCen
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
 W28
 M20
-M8
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -877,10 +879,10 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388
@@ -1029,91 +1031,92 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+W28
+M20
+OmegaCen
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
 W28
 M20
-M8
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -1122,8 +1125,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -1137,6 +1140,7 @@
 NGC6388</t>
         </is>
       </c>
+      <c r="K2" s="1" t="inlineStr"/>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44</t>
@@ -1251,15 +1255,16 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -1267,10 +1272,10 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -1278,61 +1283,61 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -1352,8 +1357,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -1480,13 +1485,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -1495,60 +1501,60 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -1567,8 +1573,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -1577,12 +1583,13 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
-Baades
-NGC6388</t>
-        </is>
-      </c>
+NGC6822
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr"/>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
@@ -1698,13 +1705,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -1713,60 +1721,60 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -1775,8 +1783,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -1925,13 +1933,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -1940,60 +1949,60 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2003,8 +2012,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -2014,8 +2023,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -2025,8 +2034,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -2156,13 +2165,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2171,10 +2181,10 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2182,51 +2192,51 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -2253,8 +2263,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -2381,13 +2391,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2396,10 +2407,10 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2407,10 +2418,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2418,10 +2429,10 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2429,24 +2440,24 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -2455,8 +2466,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -2507,8 +2518,8 @@
       <c r="N2" s="1" t="inlineStr">
         <is>
           <t>N44
+S308
 30Dor
-S308
 LMCclusters1
 LMCclusters2</t>
         </is>
@@ -2606,13 +2617,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2621,10 +2633,10 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2632,10 +2644,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2643,10 +2655,10 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2654,10 +2666,10 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2665,12 +2677,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -2679,8 +2691,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -2689,8 +2701,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -2729,8 +2741,8 @@
       <c r="N2" s="1" t="inlineStr">
         <is>
           <t>N44
+S308
 30Dor
-S308
 LMCclusters2
 AV255</t>
         </is>
@@ -2828,83 +2840,84 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+OmegaCen
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
+W28
+M20
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
+W28
+M20
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -2914,8 +2927,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -2925,8 +2938,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -2936,8 +2949,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -3056,13 +3069,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3070,10 +3084,10 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3081,10 +3095,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3092,10 +3106,10 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3103,10 +3117,10 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3114,12 +3128,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -3128,8 +3142,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -3138,8 +3152,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -3178,8 +3192,8 @@
       <c r="N2" s="1" t="inlineStr">
         <is>
           <t>N44
+S308
 30Dor
-S308
 LMCclusters1
 LMCclusters2
 LMCclusters3
@@ -3279,13 +3293,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3293,10 +3308,10 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3304,10 +3319,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3315,10 +3330,10 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3326,10 +3341,10 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3337,12 +3352,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -3351,8 +3366,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -3361,8 +3376,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -3398,8 +3413,8 @@
       <c r="N2" s="1" t="inlineStr">
         <is>
           <t>N44
+S308
 30Dor
-S308
 LMCclusters2
 AV255</t>
         </is>
@@ -3497,13 +3512,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3511,10 +3527,10 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3522,10 +3538,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3533,10 +3549,10 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3544,24 +3560,24 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -3570,8 +3586,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -3615,6 +3631,7 @@
 AV255</t>
         </is>
       </c>
+      <c r="N2" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3708,23 +3725,24 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3732,10 +3750,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -3743,32 +3761,32 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
@@ -3819,6 +3837,7 @@
 AV255</t>
         </is>
       </c>
+      <c r="N2" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3912,64 +3931,65 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
@@ -3990,6 +4010,7 @@
 NGC6388</t>
         </is>
       </c>
+      <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV255</t>
@@ -4015,6 +4036,7 @@
 AV255</t>
         </is>
       </c>
+      <c r="N2" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4108,64 +4130,65 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
+RCW86
+G316.75
+M8
 NGC6388</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 NGC6388</t>
         </is>
@@ -4186,6 +4209,7 @@
 NGC6388</t>
         </is>
       </c>
+      <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44</t>
@@ -4207,6 +4231,7 @@
 LMCclusters2</t>
         </is>
       </c>
+      <c r="N2" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4300,37 +4325,38 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -4338,10 +4364,10 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -4349,10 +4375,10 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -4360,10 +4386,10 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -4416,6 +4442,7 @@
 AV255</t>
         </is>
       </c>
+      <c r="N2" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4509,12 +4536,13 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
 G316.75
 NGC6388</t>
         </is>
@@ -4522,10 +4550,10 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -4534,62 +4562,62 @@
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -4735,86 +4763,87 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+OmegaCen
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
+W28
+M20
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
+W28
+M20
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
-OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -4832,8 +4861,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -4842,8 +4871,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -4967,38 +4996,39 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+OmegaCen
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
+W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
-OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5006,34 +5036,34 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5041,10 +5071,10 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5054,8 +5084,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388</t>
         </is>
@@ -5064,8 +5094,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5075,8 +5105,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5196,76 +5226,77 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+OmegaCen
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
+W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+RCW86
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>NGC3199
-RCW86
-G316.75
 W28
 M20
-M8
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+RCW86
+NGC6822
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>W28
+M20
 OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5273,12 +5304,12 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
@@ -5287,8 +5318,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5298,8 +5329,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5307,8 +5338,8 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>M8
-NGC6822
+          <t>NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5430,27 +5461,28 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+W28
+M20
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
 W28
 M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5458,48 +5490,48 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5507,10 +5539,10 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5520,8 +5552,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5531,8 +5563,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5659,28 +5691,29 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+W28
+M20
+OmegaCen
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
 W28
 M20
-M8
-OmegaCen
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5688,10 +5721,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5699,34 +5732,34 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5734,10 +5767,10 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
+          <t>W28
+M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5756,8 +5789,8 @@
         <is>
           <t>W28
 M20
-M8
-NGC6822
+NGC6822
+M8
 Baades
 NGC6388
 AV255</t>
@@ -5887,27 +5920,28 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RCW36
+          <t>NGC3199
+W28
+M20
+RCW36
+RCW86
 Pencil
-NGC3199
-RCW86
-G316.75
+G316.75
+M8
+Baades
+NGC6388</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NGC3199
 W28
 M20
-M8
-Baades
-NGC6388</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NGC3199
-RCW86
-G316.75
-W28
-M20
+RCW86
+G316.75
 M8
 Baades
 NGC6388</t>
@@ -5915,61 +5949,61 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
+          <t>W28
+M20
 OmegaCen
+RCW86
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
 OmegaCen
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>RCW86
-G316.75
-W28
-M20
-M8
-NGC6822
+          <t>W28
+M20
+RCW86
+NGC6822
+G316.75
+M8
 Baades
 NGC6388</t>
         </is>

--- a/target_observability/EarlyScienceObservability_custom_constraint.xlsx
+++ b/target_observability/EarlyScienceObservability_custom_constraint.xlsx
@@ -674,7 +674,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -684,7 +685,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -695,13 +697,15 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -710,7 +714,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -719,7 +724,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -728,7 +734,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
     </row>
@@ -904,7 +911,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -915,7 +923,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -926,13 +935,15 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -941,7 +952,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -951,7 +963,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -961,7 +974,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1149,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1146,7 +1161,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -1157,13 +1173,15 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1172,7 +1190,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1181,7 +1200,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -1191,7 +1211,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1374,8 @@
 Baades
 G316.75
 M8
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1364,7 +1386,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1375,7 +1398,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -1383,13 +1407,15 @@
           <t>Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1399,7 +1425,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1410,7 +1437,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -1422,7 +1450,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1613,8 @@
 Baades
 G316.75
 M8
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1595,7 +1625,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1607,20 +1638,23 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Baades
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1629,7 +1663,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1638,7 +1673,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -1648,7 +1684,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1849,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1823,7 +1861,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1834,20 +1873,23 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Baades
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1857,7 +1899,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1867,7 +1910,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -1972,8 +2016,7 @@
 M20
 RCW86
 G316.75
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -1983,8 +2026,7 @@
 RCW86
 Baades
 G316.75
-M8
-NGC6388</t>
+M8</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -2028,7 +2070,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -2038,7 +2081,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2048,19 +2092,22 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -2070,7 +2117,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -2080,7 +2128,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2238,7 +2287,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -2247,7 +2297,7 @@
 M20
 M8
 AV435
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2256,18 +2306,20 @@
 M20
 M8
 AV435
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -2278,7 +2330,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -2289,7 +2342,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2447,7 +2501,7 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -2456,7 +2510,7 @@
 M20
 M8
 AV435
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2465,18 +2519,20 @@
 M20
 M8
 AV435
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -2485,7 +2541,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -2494,7 +2551,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2659,7 +2717,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -2669,7 +2728,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2679,20 +2739,23 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -2702,7 +2765,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -2712,7 +2776,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -2895,7 +2960,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2905,7 +2971,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -2915,19 +2982,22 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -2936,7 +3006,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -2946,7 +3017,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3180,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3118,7 +3191,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3128,12 +3202,14 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -3141,7 +3217,8 @@
           <t>N44
 AV435
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -3150,7 +3227,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -3159,7 +3237,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3323,7 +3402,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3334,7 +3414,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3345,12 +3426,14 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -3358,7 +3441,8 @@
           <t>N44
 AV435
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -3368,7 +3452,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -3378,7 +3463,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3543,7 +3629,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3554,7 +3641,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3564,12 +3652,14 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -3577,7 +3667,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -3585,7 +3676,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -3593,7 +3685,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3759,7 +3852,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3770,7 +3864,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -3781,14 +3876,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -3796,7 +3893,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -3805,7 +3903,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -3814,7 +3913,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -3981,7 +4081,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -3993,7 +4094,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -4004,13 +4106,15 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4019,7 +4123,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4028,7 +4133,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4038,7 +4144,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4208,7 +4315,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4219,7 +4327,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -4229,13 +4338,15 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4243,7 +4354,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4251,7 +4363,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4260,7 +4373,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4416,7 +4530,8 @@
 Baades
 G316.75
 M8
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -4427,7 +4542,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4439,7 +4555,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -4448,13 +4565,15 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4463,7 +4582,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4473,7 +4593,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4485,7 +4606,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4639,7 +4761,8 @@
 G316.75
 M8
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -4649,7 +4772,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4660,20 +4784,23 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 Baades
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4681,7 +4808,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4690,7 +4818,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4700,7 +4829,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -4857,7 +4987,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -4868,7 +4999,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -4879,20 +5011,23 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 Baades
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -4901,7 +5036,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -4910,7 +5046,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -4921,7 +5058,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5077,7 +5215,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5089,7 +5228,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5100,20 +5240,23 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -5122,7 +5265,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5131,7 +5275,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5141,7 +5286,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5322,7 +5468,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -5334,7 +5481,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -5346,20 +5494,23 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5370,7 +5521,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -5381,7 +5533,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5689,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5547,7 +5701,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5558,18 +5713,21 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -5580,7 +5738,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5591,7 +5750,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5603,7 +5763,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5758,7 +5919,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5769,7 +5931,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5780,20 +5943,23 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -5803,7 +5969,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -5814,7 +5981,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5826,7 +5994,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -5984,7 +6153,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5995,7 +6165,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6006,19 +6177,22 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6026,7 +6200,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6034,7 +6209,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6044,7 +6220,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -6199,7 +6376,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6209,7 +6387,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6221,21 +6400,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6244,7 +6426,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6253,7 +6436,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6263,7 +6447,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -6418,7 +6603,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6429,7 +6615,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6440,20 +6627,23 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6463,7 +6653,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6473,7 +6664,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6484,7 +6676,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -6637,7 +6830,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6648,7 +6842,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6659,13 +6854,15 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -6674,7 +6871,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6683,7 +6881,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6692,7 +6891,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6702,7 +6902,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -6851,7 +7052,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6862,7 +7064,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6873,12 +7076,14 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -6887,7 +7092,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -6896,7 +7102,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -6906,7 +7113,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -6917,7 +7125,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7277,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7079,7 +7289,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7090,14 +7301,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7107,7 +7320,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7117,7 +7331,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -7128,7 +7343,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7139,7 +7355,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7503,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7297,7 +7515,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7307,12 +7526,14 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7320,7 +7541,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7329,7 +7551,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -7339,7 +7562,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7351,7 +7575,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7499,7 +7724,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7511,7 +7737,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7522,12 +7749,14 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7535,7 +7764,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7543,7 +7773,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -7552,7 +7783,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7561,7 +7793,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7976,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -7754,7 +7988,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7765,19 +8000,22 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -7787,7 +8025,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -7798,7 +8037,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -7936,7 +8176,8 @@
 G316.75
 M8
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -7948,7 +8189,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7960,7 +8202,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7969,14 +8212,16 @@
 Baades
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7985,7 +8230,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -7995,7 +8241,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8006,7 +8253,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8017,7 +8265,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8404,8 @@
 G316.75
 M8
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -8166,7 +8416,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -8177,7 +8428,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -8185,14 +8437,16 @@
           <t>NGC6822
 Baades
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -8200,7 +8454,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -8208,7 +8463,8 @@
           <t>N44
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8217,7 +8473,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8226,7 +8483,8 @@
 S308
 AV435
 30Dor
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8364,7 +8622,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -8375,7 +8634,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -8386,7 +8646,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -8394,14 +8655,16 @@
           <t>NGC6822
 Baades
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -8410,7 +8673,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -8419,7 +8683,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8429,7 +8694,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8439,7 +8705,8 @@
 AV435
 30Dor
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8574,7 +8841,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -8584,7 +8852,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -8595,21 +8864,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -8619,7 +8891,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -8628,7 +8901,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8638,7 +8912,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8648,7 +8923,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8779,7 +9055,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -8789,7 +9066,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -8798,20 +9076,22 @@
 M20
 M8
 AV435
-NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -8822,7 +9102,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -8833,7 +9114,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8844,7 +9126,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -8855,7 +9138,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
     </row>
@@ -8985,7 +9269,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -8994,7 +9279,8 @@
 M20
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -9003,18 +9289,20 @@
 M20
 M8
 AV435
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>N44
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9023,7 +9311,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -9033,7 +9322,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -9044,7 +9334,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9057,7 +9348,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9483,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -9200,7 +9493,8 @@
 M20
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -9209,19 +9503,21 @@
 M20
 M8
 AV435
-NGC6388</t>
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9231,7 +9527,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -9241,7 +9538,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -9252,7 +9550,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9265,7 +9564,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9397,7 +9697,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -9407,7 +9708,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -9417,12 +9719,14 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9430,7 +9734,8 @@
           <t>N44
 AV435
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9440,7 +9745,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -9450,7 +9756,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -9461,7 +9768,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-LMCclusters3</t>
+LMCclusters3
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9475,7 +9783,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9607,7 +9916,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -9617,7 +9927,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -9627,12 +9938,14 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9641,7 +9954,8 @@
 AV435
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9651,7 +9965,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -9661,7 +9976,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -9672,7 +9988,8 @@
 30Dor
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9686,7 +10003,8 @@
 LMCclusters1
 LMCclusters2
 LMCclusters3
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -9870,7 +10188,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -9881,7 +10200,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -9891,18 +10211,21 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
-AV435</t>
+AV435
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -9911,7 +10234,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -9920,7 +10244,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10427,8 @@
 G316.75
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -10113,7 +10439,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -10125,21 +10452,24 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -10148,7 +10478,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -10157,7 +10488,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10667,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -10346,7 +10679,8 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -10357,19 +10691,22 @@
 Baades
 M8
 AV435
-NGC6388</t>
+NGC6388
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>AV435</t>
+          <t>AV435
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>N44
 AV435
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -10378,7 +10715,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -10387,7 +10725,8 @@
 AV435
 30Dor
 LMCclusters1
-LMCclusters2</t>
+LMCclusters2
+DEM103</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10905,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -10577,7 +10917,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -10588,14 +10929,16 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>NGC6822
 AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -10604,7 +10947,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -10613,7 +10957,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -10622,7 +10967,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
@@ -10802,7 +11148,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -10814,7 +11161,8 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -10826,13 +11174,15 @@
 M8
 AV435
 NGC6388
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>AV435
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -10841,7 +11191,8 @@
 AV435
 30Dor
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -10851,7 +11202,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -10861,7 +11213,8 @@
 30Dor
 LMCclusters1
 LMCclusters2
-AV255</t>
+AV255
+DEM103</t>
         </is>
       </c>
     </row>
